--- a/Modelo Visual.xlsx
+++ b/Modelo Visual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TDS SESI A\Desktop\^Trabalhos\^ Sprint 5\O DESAFIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayck\Desktop\Marcos Gustavo\O DESAFIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDE69B42-8B00-44AA-B2DC-CE9F3D163134}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D03A097-8CAB-4534-B7D7-C8D39875DB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C079A6BB-77A9-4106-8CA5-A7AFDB2FE9C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C079A6BB-77A9-4106-8CA5-A7AFDB2FE9C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -184,7 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -209,9 +216,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -249,7 +256,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -355,7 +362,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -497,7 +504,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -508,12 +515,12 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="12">
         <v>0</v>
@@ -534,7 +541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -543,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3">
-        <f t="shared" ref="C2:G2" si="0">C1*6+$A$2</f>
+        <f t="shared" ref="C2:F2" si="0">C1*6+$A$2</f>
         <v>6</v>
       </c>
       <c r="D2" s="3">
@@ -563,7 +570,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -592,7 +599,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -621,7 +628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -650,7 +657,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -679,7 +686,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>5</v>
       </c>
